--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/151.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/151.xlsx
@@ -479,13 +479,13 @@
         <v>0.07500945409724492</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.979834191033392</v>
+        <v>-2.014936391457519</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01315025688906682</v>
+        <v>-0.03673040906495197</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1774618846813252</v>
+        <v>-0.1823948606074815</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.0727589371228326</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.809489119668868</v>
+        <v>-1.799836447407491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02218670066445407</v>
+        <v>-0.005312987403790246</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1485140990214842</v>
+        <v>-0.1385001893717693</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.05161226381637479</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.932178401107332</v>
+        <v>-1.903854714029087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0796746010317191</v>
+        <v>0.05767768381154198</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1340708995644291</v>
+        <v>-0.1231424848052384</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.009230256971314204</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.035420676302126</v>
+        <v>-1.992563283667351</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1589248897700874</v>
+        <v>0.1364274344693367</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1810852766985593</v>
+        <v>-0.1745798556702236</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.04649231955302863</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.046614313283256</v>
+        <v>-1.989348349612094</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2845394857454888</v>
+        <v>0.2797371534064004</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1930368038865955</v>
+        <v>-0.1854405876071984</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1033385799385348</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.937578860712515</v>
+        <v>-1.864098139063274</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4181752831630385</v>
+        <v>0.4237976794643246</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2244699657389702</v>
+        <v>-0.2247123646836505</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1487087090110495</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.529655278226668</v>
+        <v>-1.397422718855758</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6264636594656372</v>
+        <v>0.6780804685104507</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2265586891129362</v>
+        <v>-0.2168548612301175</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1699429184324757</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8137638365244921</v>
+        <v>-0.6380214535930278</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7262281394119174</v>
+        <v>0.7568412373020945</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1504690307701397</v>
+        <v>-0.1441162895965701</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1564350082157908</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.02228248755053296</v>
+        <v>0.2107825237404599</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7494386253746174</v>
+        <v>0.8111952655988498</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06969194348410968</v>
+        <v>-0.06022579248860734</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.0986897937647607</v>
       </c>
       <c r="E11" t="n">
-        <v>1.02686736559947</v>
+        <v>1.333851462864986</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7979121182341934</v>
+        <v>0.9006703825491874</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06882488722859345</v>
+        <v>0.099592238992658</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.003664478572646374</v>
       </c>
       <c r="E12" t="n">
-        <v>2.219635445434312</v>
+        <v>2.61366752216512</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7207599969845189</v>
+        <v>0.8439458814557532</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2195403661313769</v>
+        <v>0.2535014026925606</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1453389569545572</v>
       </c>
       <c r="E13" t="n">
-        <v>3.534615091904303</v>
+        <v>4.000933996780844</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6766701473777652</v>
+        <v>0.8313080819308301</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4790851011000112</v>
+        <v>0.550967406331571</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3172132347267316</v>
       </c>
       <c r="E14" t="n">
-        <v>4.8360723401032</v>
+        <v>5.350430308561839</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5073009678684474</v>
+        <v>0.6917429544833407</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7445324077735231</v>
+        <v>0.8240565758389977</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.509288756248387</v>
       </c>
       <c r="E15" t="n">
-        <v>6.005356054648235</v>
+        <v>6.556056550598585</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2491303515927085</v>
+        <v>0.4555251828923825</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9692016010714981</v>
+        <v>1.065536293352464</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7171252163558999</v>
       </c>
       <c r="E16" t="n">
-        <v>7.079638271108046</v>
+        <v>7.659794960894417</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0119555763759996</v>
+        <v>0.2319074343674364</v>
       </c>
       <c r="G16" t="n">
-        <v>1.232040758061015</v>
+        <v>1.326398482325627</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9351550620766305</v>
       </c>
       <c r="E17" t="n">
-        <v>8.113863274949876</v>
+        <v>8.72275210977647</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3539912771734399</v>
+        <v>-0.1357787103110404</v>
       </c>
       <c r="G17" t="n">
-        <v>1.487146759107581</v>
+        <v>1.600482431917716</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.159117202893559</v>
       </c>
       <c r="E18" t="n">
-        <v>8.813188952409922</v>
+        <v>9.428783108693258</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5856396712552622</v>
+        <v>-0.3678253312305517</v>
       </c>
       <c r="G18" t="n">
-        <v>1.816097867229969</v>
+        <v>1.946913022382148</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.381718365994896</v>
       </c>
       <c r="E19" t="n">
-        <v>9.456948606849812</v>
+        <v>10.06539042024596</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8476666343781877</v>
+        <v>-0.6383283873216814</v>
       </c>
       <c r="G19" t="n">
-        <v>2.018332565992046</v>
+        <v>2.151277369015344</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.593756214659646</v>
       </c>
       <c r="E20" t="n">
-        <v>9.82602618443152</v>
+        <v>10.39941616601542</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.148477428649962</v>
+        <v>-0.9449229148546752</v>
       </c>
       <c r="G20" t="n">
-        <v>2.252990484633794</v>
+        <v>2.381565810576363</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.786009551305882</v>
       </c>
       <c r="E21" t="n">
-        <v>10.27672452354827</v>
+        <v>10.84098676824775</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.430847801906138</v>
+        <v>-1.226917097540861</v>
       </c>
       <c r="G21" t="n">
-        <v>2.417966576775562</v>
+        <v>2.544154115711117</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.948776307880763</v>
       </c>
       <c r="E22" t="n">
-        <v>10.51020507588729</v>
+        <v>11.0582942741154</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.75496273627833</v>
+        <v>-1.566232334567453</v>
       </c>
       <c r="G22" t="n">
-        <v>2.567441728610761</v>
+        <v>2.686617012360921</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.079000575280323</v>
       </c>
       <c r="E23" t="n">
-        <v>10.69312341199276</v>
+        <v>11.20692102964422</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.958718724521143</v>
+        <v>-1.758054109832565</v>
       </c>
       <c r="G23" t="n">
-        <v>2.605383459529714</v>
+        <v>2.722528258613397</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.17429762967595</v>
       </c>
       <c r="E24" t="n">
-        <v>10.53667850348845</v>
+        <v>11.00903691973342</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.288086160701116</v>
+        <v>-2.093487028696469</v>
       </c>
       <c r="G24" t="n">
-        <v>2.712970814508858</v>
+        <v>2.820139480401737</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.235372294910487</v>
       </c>
       <c r="E25" t="n">
-        <v>10.44953923091412</v>
+        <v>10.89716823274433</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.510198359936538</v>
+        <v>-2.3396195467325</v>
       </c>
       <c r="G25" t="n">
-        <v>2.729968646999785</v>
+        <v>2.827313859556626</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.264375785999635</v>
       </c>
       <c r="E26" t="n">
-        <v>10.12634745875657</v>
+        <v>10.51562599774105</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.73113791492659</v>
+        <v>-2.593626095422838</v>
       </c>
       <c r="G26" t="n">
-        <v>2.776326658160333</v>
+        <v>2.859526160874044</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.263305976434498</v>
       </c>
       <c r="E27" t="n">
-        <v>9.977834032604484</v>
+        <v>10.33710389704137</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.92772503308144</v>
+        <v>-2.825797063852932</v>
       </c>
       <c r="G27" t="n">
-        <v>2.784207771900685</v>
+        <v>2.851229506085668</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.238056163274162</v>
       </c>
       <c r="E28" t="n">
-        <v>9.63118150544395</v>
+        <v>9.960823607960588</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.977615143150186</v>
+        <v>-2.879276724527805</v>
       </c>
       <c r="G28" t="n">
-        <v>2.823959624809134</v>
+        <v>2.905733066198947</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.191535357656275</v>
       </c>
       <c r="E29" t="n">
-        <v>9.235041817109719</v>
+        <v>9.521615608429329</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.050944758963782</v>
+        <v>-2.96200795655293</v>
       </c>
       <c r="G29" t="n">
-        <v>2.767686867203513</v>
+        <v>2.834590549954399</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.126748845281266</v>
       </c>
       <c r="E30" t="n">
-        <v>8.72425372401819</v>
+        <v>8.972555240403375</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.081294995660702</v>
+        <v>-2.989874391076437</v>
       </c>
       <c r="G30" t="n">
-        <v>2.714914728123665</v>
+        <v>2.793077369649215</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.047419095576859</v>
       </c>
       <c r="E31" t="n">
-        <v>8.126231917205057</v>
+        <v>8.329832864564422</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.990548858269914</v>
+        <v>-2.893775801663666</v>
       </c>
       <c r="G31" t="n">
-        <v>2.646520449264907</v>
+        <v>2.72985374360393</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.956945455511679</v>
       </c>
       <c r="E32" t="n">
-        <v>7.671755932197182</v>
+        <v>7.865039184216421</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.021187927475593</v>
+        <v>-2.933511127371341</v>
       </c>
       <c r="G32" t="n">
-        <v>2.528132175075398</v>
+        <v>2.604939586137507</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.862756382561857</v>
       </c>
       <c r="E33" t="n">
-        <v>7.198429494192609</v>
+        <v>7.36851642642124</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.960599996448926</v>
+        <v>-2.877768027200038</v>
       </c>
       <c r="G33" t="n">
-        <v>2.413754501606962</v>
+        <v>2.488265418771094</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.768442445231551</v>
       </c>
       <c r="E34" t="n">
-        <v>6.585921989406144</v>
+        <v>6.734888733065163</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.841527023941651</v>
+        <v>-2.75444441605569</v>
       </c>
       <c r="G34" t="n">
-        <v>2.280666462843625</v>
+        <v>2.358882621019299</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.678799523522547</v>
       </c>
       <c r="E35" t="n">
-        <v>6.008755935950244</v>
+        <v>6.133060948016723</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.842935771055215</v>
+        <v>-2.783255262051978</v>
       </c>
       <c r="G35" t="n">
-        <v>2.075732321288517</v>
+        <v>2.143958180101296</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.597134159953393</v>
       </c>
       <c r="E36" t="n">
-        <v>5.441632124488243</v>
+        <v>5.552350203499654</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.719572809432834</v>
+        <v>-2.679145702321347</v>
       </c>
       <c r="G36" t="n">
-        <v>1.944547271642833</v>
+        <v>2.025656476963458</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.523092668553796</v>
       </c>
       <c r="E37" t="n">
-        <v>4.91677702250965</v>
+        <v>5.007048593135366</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.6352817244585</v>
+        <v>-2.607506583044028</v>
       </c>
       <c r="G37" t="n">
-        <v>1.757942582755273</v>
+        <v>1.827733016574624</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.457133461265685</v>
       </c>
       <c r="E38" t="n">
-        <v>4.423688774437148</v>
+        <v>4.504585487176396</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.607494777900619</v>
+        <v>-2.585783545150957</v>
       </c>
       <c r="G38" t="n">
-        <v>1.554990131273883</v>
+        <v>1.61700648465313</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.395349833933533</v>
       </c>
       <c r="E39" t="n">
-        <v>3.923737802995773</v>
+        <v>3.985444074608124</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.450387994355793</v>
+        <v>-2.425496455971544</v>
       </c>
       <c r="G39" t="n">
-        <v>1.369693452276124</v>
+        <v>1.430554475620336</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.336697333712749</v>
       </c>
       <c r="E40" t="n">
-        <v>3.399010196566006</v>
+        <v>3.417059473829961</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.342714855334538</v>
+        <v>-2.318584355195438</v>
       </c>
       <c r="G40" t="n">
-        <v>1.290831946260717</v>
+        <v>1.346464078083968</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.278909334466774</v>
       </c>
       <c r="E41" t="n">
-        <v>2.927456104092018</v>
+        <v>2.923514760212281</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.247659840599189</v>
+        <v>-2.235653222741908</v>
       </c>
       <c r="G41" t="n">
-        <v>1.108979221100363</v>
+        <v>1.165387344350416</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.219917809413542</v>
       </c>
       <c r="E42" t="n">
-        <v>2.509956976281738</v>
+        <v>2.483631506477984</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.207869424222269</v>
+        <v>-2.203615637546954</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9516922123661492</v>
+        <v>0.9844963448731768</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.158881911282541</v>
       </c>
       <c r="E43" t="n">
-        <v>2.064715761458534</v>
+        <v>2.001455932973459</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.147647452641305</v>
+        <v>-2.145443038861923</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7926989669044454</v>
+        <v>0.8165752629554556</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.093065363776877</v>
       </c>
       <c r="E44" t="n">
-        <v>1.833951966122883</v>
+        <v>1.767145872557518</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.105460592152203</v>
+        <v>-2.105241803494343</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7460765205315191</v>
+        <v>0.7650702092682545</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.02379705648178</v>
       </c>
       <c r="E45" t="n">
-        <v>1.437960235586056</v>
+        <v>1.337699939616566</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.059910839810443</v>
+        <v>-2.062720463941965</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6457784481031179</v>
+        <v>0.6638088371376173</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9512194344725551</v>
       </c>
       <c r="E46" t="n">
-        <v>1.087196370480683</v>
+        <v>0.9822502195870808</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.00350192955083</v>
+        <v>-2.019652939754496</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4968054083676144</v>
+        <v>0.5046550417255409</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.877053288268849</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7903867328152547</v>
+        <v>0.6564109472675042</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.962494796393144</v>
+        <v>-1.97580155404462</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4672941238623478</v>
+        <v>0.4782996655584822</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.8036840259180198</v>
       </c>
       <c r="E48" t="n">
-        <v>0.608219203830641</v>
+        <v>0.4911578277603875</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.855696812003331</v>
+        <v>-1.870044783303548</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3663869060340033</v>
+        <v>0.3724012330964932</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7314087746920592</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4292123052415989</v>
+        <v>0.3110349496143433</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.804878030653017</v>
+        <v>-1.821316299346321</v>
       </c>
       <c r="G49" t="n">
-        <v>0.249703294552862</v>
+        <v>0.2371378999075186</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6628120731052665</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2756667399587168</v>
+        <v>0.179919156809996</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.755856779139229</v>
+        <v>-1.761516951899426</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2048484716531563</v>
+        <v>0.1986578544490807</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5981642197900015</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1424512056465544</v>
+        <v>0.0291155328364197</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.72695936209127</v>
+        <v>-1.728380701357804</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09291210184185787</v>
+        <v>0.07532086414220139</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5388083828780759</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.01820262998812158</v>
+        <v>-0.1358259308846794</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.660544412277548</v>
+        <v>-1.647173119842098</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0472088826357711</v>
+        <v>0.03336066240656765</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4845057333010195</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.03347218948385955</v>
+        <v>-0.1373149529734298</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.512370187246104</v>
+        <v>-1.49931920770184</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.05061640575306664</v>
+        <v>-0.07838525109105338</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4342296441242698</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1097963766757299</v>
+        <v>-0.206707159955092</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.455095566469775</v>
+        <v>-1.44655729974628</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.07852533879284913</v>
+        <v>-0.1036545540644146</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3877111325342897</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1101300687294457</v>
+        <v>-0.1939245506710091</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.406485920956207</v>
+        <v>-1.397412487731469</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.127872412264747</v>
+        <v>-0.1608402427603899</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3439850234374628</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2044358503630551</v>
+        <v>-0.2818697210354424</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.360674881440311</v>
+        <v>-1.353564250059835</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.213261375576188</v>
+        <v>-0.2489947576679562</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3039426664603664</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2127151909410967</v>
+        <v>-0.2376208954974375</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.327487475277247</v>
+        <v>-1.315613862035715</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2518626205069661</v>
+        <v>-0.2948695449582648</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2687473430578181</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3121381087380546</v>
+        <v>-0.3297309204568324</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.297341074056535</v>
+        <v>-1.289547318377415</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.287290642889202</v>
+        <v>-0.3218277704487816</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2395169753231758</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3315772448861181</v>
+        <v>-0.3326460038694813</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.290505109012726</v>
+        <v>-1.295306654342254</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.366586578182088</v>
+        <v>-0.4000281884332424</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2167263981408522</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4483301132085966</v>
+        <v>-0.4537069625269598</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.24597610807113</v>
+        <v>-1.237064011806325</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.38892820558983</v>
+        <v>-0.4137221547885584</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2000114097389319</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5017932466826958</v>
+        <v>-0.5157044276767513</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.259504015409149</v>
+        <v>-1.268487729543972</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4344315243675115</v>
+        <v>-0.4594001896887044</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1886570623653444</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6536310012189667</v>
+        <v>-0.6740491772604792</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.294965879202493</v>
+        <v>-1.305274917437451</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4731697089618428</v>
+        <v>-0.4991394504441828</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1812197752774564</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7626239552734327</v>
+        <v>-0.7780241583562387</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.222516927087264</v>
+        <v>-1.21229839495178</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4576561765023032</v>
+        <v>-0.4795586525752022</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1764936476069882</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7872793907894867</v>
+        <v>-0.7952030030461144</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.229097114023862</v>
+        <v>-1.209703624430316</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5640409808727741</v>
+        <v>-0.5940905799175256</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1729503206423919</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9223499066361021</v>
+        <v>-0.9279077681534147</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.283636876576931</v>
+        <v>-1.271142312792046</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5653867672214862</v>
+        <v>-0.6019118809312687</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1698939378343537</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.012241351644024</v>
+        <v>-1.020933085231846</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.274317109359709</v>
+        <v>-1.259382815936809</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5916414061647817</v>
+        <v>-0.613561196448015</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1665420624919119</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.001571863030287</v>
+        <v>-0.9843749171205163</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.273124002865764</v>
+        <v>-1.259060142016942</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6031884104386435</v>
+        <v>-0.6324462778653807</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1617482796418379</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.088966913711826</v>
+        <v>-1.069327090125796</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.25006698376739</v>
+        <v>-1.198990063281183</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6361105943797687</v>
+        <v>-0.6598609689010747</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1553211635718353</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.056730215098027</v>
+        <v>-0.9988543190173613</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.275130877245422</v>
+        <v>-1.222386283500197</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6648474614773553</v>
+        <v>-0.678812159121535</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1470770721966249</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.078109329813093</v>
+        <v>-1.002783857753689</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.222254852903568</v>
+        <v>-1.173248554571432</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7692867782138986</v>
+        <v>-0.7929206753202284</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1378894780545663</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.113616053151394</v>
+        <v>-1.039530121150014</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.188239512682699</v>
+        <v>-1.115335669041415</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7187906707834512</v>
+        <v>-0.7358467419818655</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1285576614337401</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.153694515027513</v>
+        <v>-1.081608374319745</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.242879225449971</v>
+        <v>-1.143785277649365</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7050242995485554</v>
+        <v>-0.719349447571513</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1199650363212511</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9974857093913904</v>
+        <v>-0.911822866752843</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.197301927773588</v>
+        <v>-1.082441030434913</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7598552556390649</v>
+        <v>-0.780418241439737</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1133430667778949</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8473179891428195</v>
+        <v>-0.7419696763637251</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.222945847297819</v>
+        <v>-1.082479593903385</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7799444616842255</v>
+        <v>-0.803790851371931</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.109093295799345</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7487206443749838</v>
+        <v>-0.6370392656613361</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.086261961851871</v>
+        <v>-0.9354795871364316</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7751374072877733</v>
+        <v>-0.7899851296590026</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.107804912792126</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.4978314405543819</v>
+        <v>-0.3757269072194811</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.082072709960529</v>
+        <v>-0.9109799795133865</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7138592688764162</v>
+        <v>-0.7229885797799601</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.1098596592417051</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.3436326573361601</v>
+        <v>-0.2052716545164657</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.022561408012832</v>
+        <v>-0.845145055745864</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6915475478319789</v>
+        <v>-0.703933504297494</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.1153071439022533</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1636640330640033</v>
+        <v>-0.0118357226424603</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.9701056467763649</v>
+        <v>-0.7775928771170023</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6431559039667105</v>
+        <v>-0.656040824493678</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1233956368318056</v>
       </c>
       <c r="E79" t="n">
-        <v>0.04482424366700057</v>
+        <v>0.2237429971852497</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.8113697534409937</v>
+        <v>-0.5899981302021438</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6161205515392499</v>
+        <v>-0.626276122909882</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1328319520616915</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2846024465103408</v>
+        <v>0.450214442377114</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.7503922526818051</v>
+        <v>-0.5335648226461501</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5768109980038866</v>
+        <v>-0.5749993019952695</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.143034842490237</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5509280558535385</v>
+        <v>0.7226031733755619</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6998788310410234</v>
+        <v>-0.4602171056126594</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4579867205177763</v>
+        <v>-0.4512011240858491</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1525211856818005</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8399825013083181</v>
+        <v>1.009310756320482</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5606033231118533</v>
+        <v>-0.2930137764142512</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3815019833755333</v>
+        <v>-0.3760228228142856</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1615187858509141</v>
       </c>
       <c r="E83" t="n">
-        <v>1.095203405750739</v>
+        <v>1.264766189611977</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5230850033365302</v>
+        <v>-0.2708090886700625</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3064527516719165</v>
+        <v>-0.2987164476907236</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1698200185131939</v>
       </c>
       <c r="E84" t="n">
-        <v>1.331885512982481</v>
+        <v>1.471685169279044</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4110620624735603</v>
+        <v>-0.1411130611131284</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.200839216670883</v>
+        <v>-0.1893866535442992</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1777226042894028</v>
       </c>
       <c r="E85" t="n">
-        <v>1.614709990755153</v>
+        <v>1.745016737731151</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3207621595036611</v>
+        <v>-0.06203906251634574</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2060177395799623</v>
+        <v>-0.2040958622328541</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1849825834123485</v>
       </c>
       <c r="E86" t="n">
-        <v>1.771537385905947</v>
+        <v>1.879036595814298</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.2138295964789776</v>
+        <v>0.0446841559652048</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1655418378757151</v>
+        <v>-0.1665964306869865</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1913114551089733</v>
       </c>
       <c r="E87" t="n">
-        <v>2.009294548197537</v>
+        <v>2.086135013661194</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.07302099392566064</v>
+        <v>0.1729210677966931</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1058424406430226</v>
+        <v>-0.1022662691994274</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1947637761789394</v>
       </c>
       <c r="E88" t="n">
-        <v>2.240239355732138</v>
+        <v>2.310366629643447</v>
       </c>
       <c r="F88" t="n">
-        <v>0.05651605770002207</v>
+        <v>0.285623984920065</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.07793508162236137</v>
+        <v>-0.07731806612681151</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1933056749151772</v>
       </c>
       <c r="E89" t="n">
-        <v>2.373113327894978</v>
+        <v>2.415352131015082</v>
       </c>
       <c r="F89" t="n">
-        <v>0.26493665160881</v>
+        <v>0.5073733727480272</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01931231346863856</v>
+        <v>-0.0061236072512601</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1822007740257606</v>
       </c>
       <c r="E90" t="n">
-        <v>2.462051704324952</v>
+        <v>2.491166336011651</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3300868770585668</v>
+        <v>0.5552408682459024</v>
       </c>
       <c r="G90" t="n">
-        <v>0.002067588255988679</v>
+        <v>0.01368542339030906</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1598923535352071</v>
       </c>
       <c r="E91" t="n">
-        <v>2.505225474803109</v>
+        <v>2.528892426310986</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5063061877837853</v>
+        <v>0.7326343972356112</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03072710013631115</v>
+        <v>-0.01370408333944421</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1229717437882976</v>
       </c>
       <c r="E92" t="n">
-        <v>2.629453359932644</v>
+        <v>2.648330571254403</v>
       </c>
       <c r="F92" t="n">
-        <v>0.6428665127287116</v>
+        <v>0.8768051046320264</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05231949444231399</v>
+        <v>-0.04579203714628004</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06976460543583368</v>
       </c>
       <c r="E93" t="n">
-        <v>2.681550244809454</v>
+        <v>2.697808288313369</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7526527724203134</v>
+        <v>0.9706371065101244</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04924700911753505</v>
+        <v>-0.05233838267176959</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.002598023411214434</v>
       </c>
       <c r="E94" t="n">
-        <v>2.636226364211601</v>
+        <v>2.647811144944374</v>
       </c>
       <c r="F94" t="n">
-        <v>0.816106205257308</v>
+        <v>0.9988451031829539</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09382952670925572</v>
+        <v>-0.09775513039777964</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.0757337956447631</v>
       </c>
       <c r="E95" t="n">
-        <v>2.500427864521384</v>
+        <v>2.510821112779333</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9292954942891617</v>
+        <v>1.13179935032098</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.05122555115301001</v>
+        <v>-0.06254904471164716</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1604358525852124</v>
       </c>
       <c r="E96" t="n">
-        <v>2.400795602181293</v>
+        <v>2.430346237164592</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9380737989286557</v>
+        <v>1.114420605202699</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.05958359268711666</v>
+        <v>-0.0615101920915887</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2465613887266508</v>
       </c>
       <c r="E97" t="n">
-        <v>2.184213719128561</v>
+        <v>2.234960095599295</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9339498688308479</v>
+        <v>1.088612987689853</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.124176615367933</v>
+        <v>-0.1376549411036308</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3289128160408879</v>
       </c>
       <c r="E98" t="n">
-        <v>2.059916577157688</v>
+        <v>2.111629401368901</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8973240178973022</v>
+        <v>1.018898106788325</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1795238497302291</v>
+        <v>-0.1866384161585082</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4016322625701811</v>
       </c>
       <c r="E99" t="n">
-        <v>1.872287201822161</v>
+        <v>1.955655124581852</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8721774884154024</v>
+        <v>0.9993173089193441</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2104627695785154</v>
+        <v>-0.2219499611257678</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4587241045561126</v>
       </c>
       <c r="E100" t="n">
-        <v>1.668075535043731</v>
+        <v>1.741616856429142</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8014300509703004</v>
+        <v>0.9056631712019532</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2722430200895674</v>
+        <v>-0.2962294974790686</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4972037922734662</v>
       </c>
       <c r="E101" t="n">
-        <v>1.54103330372531</v>
+        <v>1.6061268644867</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7311957437587424</v>
+        <v>0.8194887723489832</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3406278548335971</v>
+        <v>-0.3647119214086189</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5151371741434755</v>
       </c>
       <c r="E102" t="n">
-        <v>1.383417324994745</v>
+        <v>1.449222342398962</v>
       </c>
       <c r="F102" t="n">
-        <v>0.636905702316346</v>
+        <v>0.7040423398971842</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.327498961342828</v>
+        <v>-0.3324634176514104</v>
       </c>
     </row>
   </sheetData>
